--- a/REGULAR/MANALO, ELIADA.xlsx
+++ b/REGULAR/MANALO, ELIADA.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E150E7C2-FA30-43FF-9F34-676CED64A0C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666B6E4-43B9-4696-B6FD-CA2E5F041C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
   </bookViews>
@@ -30,20 +30,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,6 +251,15 @@
   </si>
   <si>
     <t>12/27-29/2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>VL(2-0-0)</t>
+  </si>
+  <si>
+    <t>2/13,14</t>
   </si>
 </sst>
 </file>
@@ -2357,7 +2358,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K134" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
@@ -2704,12 +2705,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K134"/>
+  <dimension ref="A2:K135"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A76" activePane="bottomLeft"/>
+      <pane ySplit="3576" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K82" sqref="K82"/>
+      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2872,7 +2873,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.018000000000001</v>
+        <v>65.518000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2882,7 +2883,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>61.582999999999998</v>
+        <v>62.082999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4442,7 +4443,9 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="48" t="s">
+        <v>72</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4458,24 +4461,36 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
-      <c r="B83" s="20"/>
-      <c r="C83" s="13"/>
+      <c r="A83" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B83" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C83" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H83" s="39"/>
+      <c r="G83" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H83" s="39">
+        <v>1</v>
+      </c>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="20"/>
+      <c r="K83" s="49">
+        <v>44936</v>
+      </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40"/>
-      <c r="B84" s="20"/>
+      <c r="B84" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
@@ -4484,29 +4499,45 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H84" s="39"/>
+      <c r="H84" s="39">
+        <v>1</v>
+      </c>
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
-      <c r="K84" s="20"/>
+      <c r="K84" s="49">
+        <v>44957</v>
+      </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="13"/>
-      <c r="D85" s="39"/>
+      <c r="A85" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B85" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="C85" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D85" s="39">
+        <v>2</v>
+      </c>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G85" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H85" s="39"/>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20"/>
+      <c r="K85" s="20" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44986</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4522,7 +4553,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45017</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -4538,7 +4571,9 @@
       <c r="K87" s="20"/>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A88" s="40"/>
+      <c r="A88" s="40">
+        <v>45047</v>
+      </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
       <c r="D88" s="39"/>
@@ -4554,7 +4589,9 @@
       <c r="K88" s="20"/>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A89" s="40"/>
+      <c r="A89" s="40">
+        <v>45078</v>
+      </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
       <c r="D89" s="39"/>
@@ -4570,7 +4607,9 @@
       <c r="K89" s="20"/>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A90" s="40"/>
+      <c r="A90" s="40">
+        <v>45108</v>
+      </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
       <c r="D90" s="39"/>
@@ -4586,7 +4625,9 @@
       <c r="K90" s="20"/>
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A91" s="40"/>
+      <c r="A91" s="40">
+        <v>45139</v>
+      </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
       <c r="D91" s="39"/>
@@ -4602,7 +4643,9 @@
       <c r="K91" s="20"/>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A92" s="40"/>
+      <c r="A92" s="40">
+        <v>45170</v>
+      </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
       <c r="D92" s="39"/>
@@ -4618,7 +4661,9 @@
       <c r="K92" s="20"/>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A93" s="40"/>
+      <c r="A93" s="40">
+        <v>45200</v>
+      </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
       <c r="D93" s="39"/>
@@ -4634,7 +4679,9 @@
       <c r="K93" s="20"/>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A94" s="40"/>
+      <c r="A94" s="40">
+        <v>45231</v>
+      </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
       <c r="D94" s="39"/>
@@ -4650,7 +4697,9 @@
       <c r="K94" s="20"/>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A95" s="40"/>
+      <c r="A95" s="40">
+        <v>45261</v>
+      </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
       <c r="D95" s="39"/>
@@ -4666,7 +4715,9 @@
       <c r="K95" s="20"/>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A96" s="40"/>
+      <c r="A96" s="40">
+        <v>45292</v>
+      </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
       <c r="D96" s="39"/>
@@ -4682,7 +4733,9 @@
       <c r="K96" s="20"/>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A97" s="40"/>
+      <c r="A97" s="40">
+        <v>45323</v>
+      </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
       <c r="D97" s="39"/>
@@ -4698,7 +4751,9 @@
       <c r="K97" s="20"/>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A98" s="40"/>
+      <c r="A98" s="40">
+        <v>45352</v>
+      </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
       <c r="D98" s="39"/>
@@ -4714,7 +4769,9 @@
       <c r="K98" s="20"/>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A99" s="40"/>
+      <c r="A99" s="40">
+        <v>45383</v>
+      </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
       <c r="D99" s="39"/>
@@ -4730,7 +4787,9 @@
       <c r="K99" s="20"/>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A100" s="40"/>
+      <c r="A100" s="40">
+        <v>45413</v>
+      </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
       <c r="D100" s="39"/>
@@ -4746,7 +4805,9 @@
       <c r="K100" s="20"/>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A101" s="40"/>
+      <c r="A101" s="40">
+        <v>45444</v>
+      </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
       <c r="D101" s="39"/>
@@ -4762,7 +4823,9 @@
       <c r="K101" s="20"/>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A102" s="40"/>
+      <c r="A102" s="40">
+        <v>45474</v>
+      </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
       <c r="D102" s="39"/>
@@ -4778,7 +4841,9 @@
       <c r="K102" s="20"/>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A103" s="40"/>
+      <c r="A103" s="40">
+        <v>45505</v>
+      </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
       <c r="D103" s="39"/>
@@ -4794,7 +4859,9 @@
       <c r="K103" s="20"/>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A104" s="40"/>
+      <c r="A104" s="40">
+        <v>45536</v>
+      </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
       <c r="D104" s="39"/>
@@ -4810,7 +4877,9 @@
       <c r="K104" s="20"/>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A105" s="40"/>
+      <c r="A105" s="40">
+        <v>45566</v>
+      </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
       <c r="D105" s="39"/>
@@ -4826,7 +4895,9 @@
       <c r="K105" s="20"/>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A106" s="40"/>
+      <c r="A106" s="40">
+        <v>45597</v>
+      </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
       <c r="D106" s="39"/>
@@ -4842,7 +4913,9 @@
       <c r="K106" s="20"/>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A107" s="40"/>
+      <c r="A107" s="40">
+        <v>45627</v>
+      </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
       <c r="D107" s="39"/>
@@ -4858,7 +4931,9 @@
       <c r="K107" s="20"/>
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A108" s="40"/>
+      <c r="A108" s="40">
+        <v>45658</v>
+      </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
       <c r="D108" s="39"/>
@@ -4874,7 +4949,9 @@
       <c r="K108" s="20"/>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A109" s="40"/>
+      <c r="A109" s="40">
+        <v>45689</v>
+      </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
       <c r="D109" s="39"/>
@@ -4890,7 +4967,9 @@
       <c r="K109" s="20"/>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A110" s="40"/>
+      <c r="A110" s="40">
+        <v>45717</v>
+      </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
       <c r="D110" s="39"/>
@@ -4906,7 +4985,9 @@
       <c r="K110" s="20"/>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A111" s="40"/>
+      <c r="A111" s="40">
+        <v>45748</v>
+      </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
       <c r="D111" s="39"/>
@@ -4922,7 +5003,9 @@
       <c r="K111" s="20"/>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A112" s="40"/>
+      <c r="A112" s="40">
+        <v>45778</v>
+      </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
       <c r="D112" s="39"/>
@@ -4938,7 +5021,9 @@
       <c r="K112" s="20"/>
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A113" s="40"/>
+      <c r="A113" s="40">
+        <v>45809</v>
+      </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
       <c r="D113" s="39"/>
@@ -4954,7 +5039,9 @@
       <c r="K113" s="20"/>
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A114" s="40"/>
+      <c r="A114" s="40">
+        <v>45839</v>
+      </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
       <c r="D114" s="39"/>
@@ -4970,7 +5057,9 @@
       <c r="K114" s="20"/>
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A115" s="40"/>
+      <c r="A115" s="40">
+        <v>45870</v>
+      </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
       <c r="D115" s="39"/>
@@ -4986,7 +5075,9 @@
       <c r="K115" s="20"/>
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A116" s="40"/>
+      <c r="A116" s="40">
+        <v>45901</v>
+      </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
       <c r="D116" s="39"/>
@@ -5002,7 +5093,9 @@
       <c r="K116" s="20"/>
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A117" s="40"/>
+      <c r="A117" s="40">
+        <v>45931</v>
+      </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
       <c r="D117" s="39"/>
@@ -5018,7 +5111,9 @@
       <c r="K117" s="20"/>
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A118" s="40"/>
+      <c r="A118" s="40">
+        <v>45962</v>
+      </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
       <c r="D118" s="39"/>
@@ -5034,7 +5129,9 @@
       <c r="K118" s="20"/>
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A119" s="40"/>
+      <c r="A119" s="40">
+        <v>45992</v>
+      </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
       <c r="D119" s="39"/>
@@ -5050,7 +5147,9 @@
       <c r="K119" s="20"/>
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A120" s="40"/>
+      <c r="A120" s="40">
+        <v>46023</v>
+      </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
       <c r="D120" s="39"/>
@@ -5066,7 +5165,9 @@
       <c r="K120" s="20"/>
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A121" s="40"/>
+      <c r="A121" s="40">
+        <v>46054</v>
+      </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
       <c r="D121" s="39"/>
@@ -5082,7 +5183,9 @@
       <c r="K121" s="20"/>
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A122" s="40"/>
+      <c r="A122" s="40">
+        <v>46082</v>
+      </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
       <c r="D122" s="39"/>
@@ -5098,7 +5201,9 @@
       <c r="K122" s="20"/>
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A123" s="40"/>
+      <c r="A123" s="40">
+        <v>46113</v>
+      </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
       <c r="D123" s="39"/>
@@ -5114,7 +5219,9 @@
       <c r="K123" s="20"/>
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A124" s="40"/>
+      <c r="A124" s="40">
+        <v>46143</v>
+      </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
       <c r="D124" s="39"/>
@@ -5130,7 +5237,9 @@
       <c r="K124" s="20"/>
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A125" s="40"/>
+      <c r="A125" s="40">
+        <v>46174</v>
+      </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
       <c r="D125" s="39"/>
@@ -5146,7 +5255,9 @@
       <c r="K125" s="20"/>
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A126" s="40"/>
+      <c r="A126" s="40">
+        <v>46204</v>
+      </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
       <c r="D126" s="39"/>
@@ -5162,7 +5273,9 @@
       <c r="K126" s="20"/>
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A127" s="40"/>
+      <c r="A127" s="40">
+        <v>46235</v>
+      </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
       <c r="D127" s="39"/>
@@ -5178,7 +5291,9 @@
       <c r="K127" s="20"/>
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A128" s="40"/>
+      <c r="A128" s="40">
+        <v>46266</v>
+      </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
       <c r="D128" s="39"/>
@@ -5194,7 +5309,9 @@
       <c r="K128" s="20"/>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A129" s="40"/>
+      <c r="A129" s="40">
+        <v>46296</v>
+      </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
       <c r="D129" s="39"/>
@@ -5210,7 +5327,9 @@
       <c r="K129" s="20"/>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A130" s="40"/>
+      <c r="A130" s="40">
+        <v>46327</v>
+      </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
       <c r="D130" s="39"/>
@@ -5226,7 +5345,9 @@
       <c r="K130" s="20"/>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A131" s="40"/>
+      <c r="A131" s="40">
+        <v>46357</v>
+      </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
       <c r="D131" s="39"/>
@@ -5242,7 +5363,9 @@
       <c r="K131" s="20"/>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A132" s="40"/>
+      <c r="A132" s="40">
+        <v>46388</v>
+      </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
       <c r="D132" s="39"/>
@@ -5258,7 +5381,9 @@
       <c r="K132" s="20"/>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="40"/>
+      <c r="A133" s="40">
+        <v>46419</v>
+      </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
       <c r="D133" s="39"/>
@@ -5274,20 +5399,38 @@
       <c r="K133" s="20"/>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A134" s="41"/>
-      <c r="B134" s="15"/>
-      <c r="C134" s="42"/>
-      <c r="D134" s="43"/>
+      <c r="A134" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B134" s="20"/>
+      <c r="C134" s="13"/>
+      <c r="D134" s="39"/>
       <c r="E134" s="9"/>
-      <c r="F134" s="15"/>
-      <c r="G134" s="42" t="str">
+      <c r="F134" s="20"/>
+      <c r="G134" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H134" s="43"/>
+      <c r="H134" s="39"/>
       <c r="I134" s="9"/>
-      <c r="J134" s="12"/>
-      <c r="K134" s="15"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="20"/>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A135" s="41"/>
+      <c r="B135" s="15"/>
+      <c r="C135" s="42"/>
+      <c r="D135" s="43"/>
+      <c r="E135" s="9"/>
+      <c r="F135" s="15"/>
+      <c r="G135" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H135" s="43"/>
+      <c r="I135" s="9"/>
+      <c r="J135" s="12"/>
+      <c r="K135" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MANALO, ELIADA.xlsx
+++ b/REGULAR/MANALO, ELIADA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2666B6E4-43B9-4696-B6FD-CA2E5F041C43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,13 +258,13 @@
     <t>VL(2-0-0)</t>
   </si>
   <si>
-    <t>2/13,14</t>
+    <t>2/13,14/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -906,7 +905,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -954,7 +952,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -997,7 +995,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1059,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1121,7 +1119,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1187,7 +1185,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1250,7 +1248,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1348,7 +1346,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1407,7 +1405,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1472,7 +1470,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1515,7 +1513,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1590,7 +1588,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1776,7 +1774,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1842,7 +1840,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1900,7 +1898,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1966,7 +1964,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2022,7 +2020,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2097,7 +2095,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2140,7 +2138,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2206,7 +2204,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2262,7 +2260,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2358,25 +2356,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K135" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2683,7 +2681,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2693,7 +2691,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2701,34 +2699,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K135"/>
+  <dimension ref="A2:K136"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B85" sqref="B85"/>
+      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2749,7 +2747,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2769,7 +2767,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2791,7 +2789,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2799,7 +2797,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2812,7 +2810,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2829,7 +2827,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2864,7 +2862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2873,7 +2871,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>65.518000000000001</v>
+        <v>66.768000000000001</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2883,12 +2881,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.082999999999998</v>
+        <v>62.332999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2910,7 +2908,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2936,7 +2934,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2962,7 +2960,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2986,7 +2984,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3012,7 +3010,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3032,7 +3030,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3052,7 +3050,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3072,7 +3070,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3092,7 +3090,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3116,7 +3114,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -3138,7 +3136,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3164,7 +3162,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3184,7 +3182,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3204,7 +3202,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="48" t="s">
         <v>55</v>
       </c>
@@ -3222,7 +3220,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3248,7 +3246,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3268,7 +3266,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3288,7 +3286,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3308,7 +3306,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3334,7 +3332,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -3354,7 +3352,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -3374,7 +3372,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -3400,7 +3398,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -3420,7 +3418,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -3440,7 +3438,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -3460,7 +3458,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -3480,7 +3478,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3506,7 +3504,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -3528,7 +3526,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="48" t="s">
         <v>60</v>
       </c>
@@ -3546,7 +3544,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3566,7 +3564,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3586,7 +3584,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -3606,7 +3604,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -3626,7 +3624,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -3646,7 +3644,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -3666,7 +3664,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -3686,7 +3684,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -3706,7 +3704,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -3732,7 +3730,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>48</v>
@@ -3752,7 +3750,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -3772,7 +3770,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -3792,7 +3790,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -3816,7 +3814,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="48" t="s">
         <v>61</v>
       </c>
@@ -3834,7 +3832,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -3854,7 +3852,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -3874,7 +3872,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -3894,7 +3892,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -3914,7 +3912,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -3934,7 +3932,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -3954,7 +3952,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -3974,7 +3972,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -3994,7 +3992,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4014,7 +4012,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4034,7 +4032,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4054,7 +4052,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4080,7 +4078,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>63</v>
       </c>
@@ -4098,7 +4096,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4118,7 +4116,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4138,7 +4136,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4160,7 +4158,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4180,7 +4178,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4206,7 +4204,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -4228,7 +4226,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>44713</v>
       </c>
@@ -4254,7 +4252,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44743</v>
       </c>
@@ -4274,7 +4272,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44774</v>
       </c>
@@ -4294,7 +4292,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40">
         <v>44805</v>
       </c>
@@ -4320,7 +4318,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>68</v>
@@ -4342,7 +4340,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -4368,7 +4366,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -4394,7 +4392,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -4420,7 +4418,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>47</v>
@@ -4442,7 +4440,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="48" t="s">
         <v>72</v>
       </c>
@@ -4460,7 +4458,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="40">
         <v>44927</v>
       </c>
@@ -4486,7 +4484,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40"/>
       <c r="B84" s="20" t="s">
         <v>47</v>
@@ -4508,7 +4506,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44958</v>
       </c>
@@ -4534,11 +4532,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B86" s="20"/>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" s="40"/>
+      <c r="B86" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
       <c r="E86" s="9"/>
@@ -4547,32 +4545,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H86" s="39"/>
+      <c r="H86" s="39">
+        <v>1</v>
+      </c>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="20"/>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="49">
+        <v>44972</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B87" s="20"/>
-      <c r="C87" s="13"/>
+      <c r="C87" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G87" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H87" s="39"/>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B88" s="20"/>
       <c r="C88" s="13"/>
@@ -4588,9 +4592,9 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4606,9 +4610,9 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4624,9 +4628,9 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4642,9 +4646,9 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4660,9 +4664,9 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4678,9 +4682,9 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4696,9 +4700,9 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4714,9 +4718,9 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4732,9 +4736,9 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4750,9 +4754,9 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4768,9 +4772,9 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4786,9 +4790,9 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4804,9 +4808,9 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4822,9 +4826,9 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4840,9 +4844,9 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4858,9 +4862,9 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4876,9 +4880,9 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4894,9 +4898,9 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4912,9 +4916,9 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4930,9 +4934,9 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4948,9 +4952,9 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4966,9 +4970,9 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4984,9 +4988,9 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5002,9 +5006,9 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5020,9 +5024,9 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5038,9 +5042,9 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5056,9 +5060,9 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5074,9 +5078,9 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5092,9 +5096,9 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5110,9 +5114,9 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5128,9 +5132,9 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5146,9 +5150,9 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5164,9 +5168,9 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5182,9 +5186,9 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5200,9 +5204,9 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5218,9 +5222,9 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5236,9 +5240,9 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5254,9 +5258,9 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5272,9 +5276,9 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5290,9 +5294,9 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5308,9 +5312,9 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5326,9 +5330,9 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5344,9 +5348,9 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5362,9 +5366,9 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5380,9 +5384,9 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5398,9 +5402,9 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5416,21 +5420,39 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A135" s="41"/>
-      <c r="B135" s="15"/>
-      <c r="C135" s="42"/>
-      <c r="D135" s="43"/>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A135" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B135" s="20"/>
+      <c r="C135" s="13"/>
+      <c r="D135" s="39"/>
       <c r="E135" s="9"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="42" t="str">
+      <c r="F135" s="20"/>
+      <c r="G135" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H135" s="43"/>
+      <c r="H135" s="39"/>
       <c r="I135" s="9"/>
-      <c r="J135" s="12"/>
-      <c r="K135" s="15"/>
+      <c r="J135" s="11"/>
+      <c r="K135" s="20"/>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A136" s="41"/>
+      <c r="B136" s="15"/>
+      <c r="C136" s="42"/>
+      <c r="D136" s="43"/>
+      <c r="E136" s="9"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="43"/>
+      <c r="I136" s="9"/>
+      <c r="J136" s="12"/>
+      <c r="K136" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5447,10 +5469,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5473,28 +5495,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5507,7 +5529,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5536,7 +5558,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>19.018000000000001</v>
       </c>
@@ -5560,17 +5582,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5591,7 +5613,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5618,7 +5640,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5644,7 +5666,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5670,7 +5692,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5696,7 +5718,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5722,7 +5744,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5748,7 +5770,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5774,7 +5796,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5800,7 +5822,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5820,7 +5842,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5840,7 +5862,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5860,7 +5882,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5881,7 +5903,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5902,7 +5924,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5923,7 +5945,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5944,7 +5966,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5965,7 +5987,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5986,7 +6008,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6007,7 +6029,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6028,7 +6050,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6049,7 +6071,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6070,7 +6092,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6091,7 +6113,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6112,7 +6134,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6133,7 +6155,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6154,7 +6176,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6175,7 +6197,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6196,7 +6218,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6217,7 +6239,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6238,7 +6260,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6259,7 +6281,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6280,7 +6302,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6289,7 +6311,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6298,7 +6320,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6307,7 +6329,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6316,7 +6338,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6325,7 +6347,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6334,7 +6356,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6343,7 +6365,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6352,7 +6374,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6361,7 +6383,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6370,7 +6392,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6379,7 +6401,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6388,7 +6410,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6397,7 +6419,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6406,7 +6428,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6415,7 +6437,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6424,7 +6446,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6433,7 +6455,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6442,7 +6464,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6451,7 +6473,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6460,7 +6482,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6469,7 +6491,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6478,7 +6500,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6487,7 +6509,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6496,7 +6518,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6505,7 +6527,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6514,7 +6536,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6523,7 +6545,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6532,7 +6554,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6541,7 +6563,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MANALO, ELIADA.xlsx
+++ b/REGULAR/MANALO, ELIADA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
   <si>
     <t>PERIOD</t>
   </si>
@@ -952,7 +952,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,7 +995,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,7 +1059,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1119,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1185,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1248,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1346,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1405,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1470,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1513,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1588,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1774,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1840,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1898,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1964,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2020,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2095,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2138,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2204,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2260,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,7 +2356,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
@@ -2703,12 +2703,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="K86" sqref="K86"/>
+      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2881,7 +2881,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>62.332999999999998</v>
+        <v>61.332999999999998</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4441,10 +4441,10 @@
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A82" s="48" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="20"/>
+      <c r="A82" s="40"/>
+      <c r="B82" s="20" t="s">
+        <v>47</v>
+      </c>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
       <c r="E82" s="9"/>
@@ -4453,49 +4453,49 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H82" s="39"/>
+      <c r="H82" s="39">
+        <v>1</v>
+      </c>
       <c r="I82" s="9"/>
       <c r="J82" s="11"/>
-      <c r="K82" s="20"/>
+      <c r="K82" s="49">
+        <v>44910</v>
+      </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A83" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B83" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C83" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A83" s="48" t="s">
+        <v>72</v>
+      </c>
+      <c r="B83" s="20"/>
+      <c r="C83" s="13"/>
       <c r="D83" s="39"/>
       <c r="E83" s="9"/>
       <c r="F83" s="20"/>
-      <c r="G83" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H83" s="39">
-        <v>1</v>
-      </c>
+      <c r="G83" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H83" s="39"/>
       <c r="I83" s="9"/>
       <c r="J83" s="11"/>
-      <c r="K83" s="49">
-        <v>44936</v>
-      </c>
+      <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>44927</v>
+      </c>
       <c r="B84" s="20" t="s">
         <v>47</v>
       </c>
-      <c r="C84" s="13"/>
+      <c r="C84" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D84" s="39"/>
       <c r="E84" s="9"/>
       <c r="F84" s="20"/>
-      <c r="G84" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G84" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H84" s="39">
         <v>1</v>
@@ -4503,89 +4503,93 @@
       <c r="I84" s="9"/>
       <c r="J84" s="11"/>
       <c r="K84" s="49">
-        <v>44957</v>
+        <v>44936</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A85" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="C85" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D85" s="39">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C85" s="13"/>
+      <c r="D85" s="39"/>
       <c r="E85" s="9"/>
       <c r="F85" s="20"/>
-      <c r="G85" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H85" s="39"/>
+      <c r="G85" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H85" s="39">
+        <v>1</v>
+      </c>
       <c r="I85" s="9"/>
       <c r="J85" s="11"/>
-      <c r="K85" s="20" t="s">
-        <v>74</v>
+      <c r="K85" s="49">
+        <v>44957</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>44958</v>
+      </c>
       <c r="B86" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="C86" s="13"/>
-      <c r="D86" s="39"/>
+        <v>73</v>
+      </c>
+      <c r="C86" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D86" s="39">
+        <v>2</v>
+      </c>
       <c r="E86" s="9"/>
       <c r="F86" s="20"/>
-      <c r="G86" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H86" s="39">
-        <v>1</v>
-      </c>
+      <c r="G86" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H86" s="39"/>
       <c r="I86" s="9"/>
       <c r="J86" s="11"/>
-      <c r="K86" s="49">
-        <v>44972</v>
+      <c r="K86" s="20" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B87" s="20"/>
-      <c r="C87" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A87" s="40"/>
+      <c r="B87" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C87" s="13"/>
       <c r="D87" s="39"/>
       <c r="E87" s="9"/>
       <c r="F87" s="20"/>
-      <c r="G87" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H87" s="39"/>
+      <c r="G87" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H87" s="39">
+        <v>1</v>
+      </c>
       <c r="I87" s="9"/>
       <c r="J87" s="11"/>
-      <c r="K87" s="20"/>
+      <c r="K87" s="49">
+        <v>44972</v>
+      </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B88" s="20"/>
-      <c r="C88" s="13"/>
+      <c r="C88" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D88" s="39"/>
       <c r="E88" s="9"/>
       <c r="F88" s="20"/>
-      <c r="G88" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G88" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
@@ -4594,7 +4598,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B89" s="20"/>
       <c r="C89" s="13"/>
@@ -4612,7 +4616,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B90" s="20"/>
       <c r="C90" s="13"/>
@@ -4630,7 +4634,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B91" s="20"/>
       <c r="C91" s="13"/>
@@ -4648,7 +4652,7 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B92" s="20"/>
       <c r="C92" s="13"/>
@@ -4666,7 +4670,7 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B93" s="20"/>
       <c r="C93" s="13"/>
@@ -4684,7 +4688,7 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B94" s="20"/>
       <c r="C94" s="13"/>
@@ -4702,7 +4706,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B95" s="20"/>
       <c r="C95" s="13"/>
@@ -4720,7 +4724,7 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B96" s="20"/>
       <c r="C96" s="13"/>
@@ -4738,7 +4742,7 @@
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B97" s="20"/>
       <c r="C97" s="13"/>
@@ -4756,7 +4760,7 @@
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B98" s="20"/>
       <c r="C98" s="13"/>
@@ -4774,7 +4778,7 @@
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B99" s="20"/>
       <c r="C99" s="13"/>
@@ -4792,7 +4796,7 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B100" s="20"/>
       <c r="C100" s="13"/>
@@ -4810,7 +4814,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B101" s="20"/>
       <c r="C101" s="13"/>
@@ -4828,7 +4832,7 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B102" s="20"/>
       <c r="C102" s="13"/>
@@ -4846,7 +4850,7 @@
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B103" s="20"/>
       <c r="C103" s="13"/>
@@ -4864,7 +4868,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B104" s="20"/>
       <c r="C104" s="13"/>
@@ -4882,7 +4886,7 @@
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B105" s="20"/>
       <c r="C105" s="13"/>
@@ -4900,7 +4904,7 @@
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B106" s="20"/>
       <c r="C106" s="13"/>
@@ -4918,7 +4922,7 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B107" s="20"/>
       <c r="C107" s="13"/>
@@ -4936,7 +4940,7 @@
     </row>
     <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B108" s="20"/>
       <c r="C108" s="13"/>
@@ -4954,7 +4958,7 @@
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B109" s="20"/>
       <c r="C109" s="13"/>
@@ -4972,7 +4976,7 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B110" s="20"/>
       <c r="C110" s="13"/>
@@ -4990,7 +4994,7 @@
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B111" s="20"/>
       <c r="C111" s="13"/>
@@ -5008,7 +5012,7 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B112" s="20"/>
       <c r="C112" s="13"/>
@@ -5026,7 +5030,7 @@
     </row>
     <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B113" s="20"/>
       <c r="C113" s="13"/>
@@ -5044,7 +5048,7 @@
     </row>
     <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B114" s="20"/>
       <c r="C114" s="13"/>
@@ -5062,7 +5066,7 @@
     </row>
     <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B115" s="20"/>
       <c r="C115" s="13"/>
@@ -5080,7 +5084,7 @@
     </row>
     <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B116" s="20"/>
       <c r="C116" s="13"/>
@@ -5098,7 +5102,7 @@
     </row>
     <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B117" s="20"/>
       <c r="C117" s="13"/>
@@ -5116,7 +5120,7 @@
     </row>
     <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B118" s="20"/>
       <c r="C118" s="13"/>
@@ -5134,7 +5138,7 @@
     </row>
     <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B119" s="20"/>
       <c r="C119" s="13"/>
@@ -5152,7 +5156,7 @@
     </row>
     <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B120" s="20"/>
       <c r="C120" s="13"/>
@@ -5170,7 +5174,7 @@
     </row>
     <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
-        <v>46023</v>
+        <v>45992</v>
       </c>
       <c r="B121" s="20"/>
       <c r="C121" s="13"/>
@@ -5188,7 +5192,7 @@
     </row>
     <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
-        <v>46054</v>
+        <v>46023</v>
       </c>
       <c r="B122" s="20"/>
       <c r="C122" s="13"/>
@@ -5206,7 +5210,7 @@
     </row>
     <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
-        <v>46082</v>
+        <v>46054</v>
       </c>
       <c r="B123" s="20"/>
       <c r="C123" s="13"/>
@@ -5224,7 +5228,7 @@
     </row>
     <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
-        <v>46113</v>
+        <v>46082</v>
       </c>
       <c r="B124" s="20"/>
       <c r="C124" s="13"/>
@@ -5242,7 +5246,7 @@
     </row>
     <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
-        <v>46143</v>
+        <v>46113</v>
       </c>
       <c r="B125" s="20"/>
       <c r="C125" s="13"/>
@@ -5260,7 +5264,7 @@
     </row>
     <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
-        <v>46174</v>
+        <v>46143</v>
       </c>
       <c r="B126" s="20"/>
       <c r="C126" s="13"/>
@@ -5278,7 +5282,7 @@
     </row>
     <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
-        <v>46204</v>
+        <v>46174</v>
       </c>
       <c r="B127" s="20"/>
       <c r="C127" s="13"/>
@@ -5296,7 +5300,7 @@
     </row>
     <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
-        <v>46235</v>
+        <v>46204</v>
       </c>
       <c r="B128" s="20"/>
       <c r="C128" s="13"/>
@@ -5314,7 +5318,7 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
-        <v>46266</v>
+        <v>46235</v>
       </c>
       <c r="B129" s="20"/>
       <c r="C129" s="13"/>
@@ -5332,7 +5336,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
-        <v>46296</v>
+        <v>46266</v>
       </c>
       <c r="B130" s="20"/>
       <c r="C130" s="13"/>
@@ -5350,7 +5354,7 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
-        <v>46327</v>
+        <v>46296</v>
       </c>
       <c r="B131" s="20"/>
       <c r="C131" s="13"/>
@@ -5368,7 +5372,7 @@
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
-        <v>46357</v>
+        <v>46327</v>
       </c>
       <c r="B132" s="20"/>
       <c r="C132" s="13"/>
@@ -5386,7 +5390,7 @@
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
-        <v>46388</v>
+        <v>46357</v>
       </c>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -5404,7 +5408,7 @@
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
-        <v>46419</v>
+        <v>46388</v>
       </c>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -5422,7 +5426,7 @@
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
-        <v>46447</v>
+        <v>46419</v>
       </c>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -5439,20 +5443,38 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40">
+        <v>46447</v>
+      </c>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H136" s="43"/>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A137" s="41"/>
+      <c r="B137" s="15"/>
+      <c r="C137" s="42"/>
+      <c r="D137" s="43"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="15"/>
+      <c r="G137" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="43"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="12"/>
+      <c r="K137" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">

--- a/REGULAR/MANALO, ELIADA.xlsx
+++ b/REGULAR/MANALO, ELIADA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EDE2CE7-7BE4-4DCD-9CEA-E5733D67493B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="76">
   <si>
     <t>PERIOD</t>
   </si>
@@ -259,12 +260,15 @@
   </si>
   <si>
     <t>2/13,14/2023</t>
+  </si>
+  <si>
+    <t>3/9,10/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -952,7 +956,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -995,7 +999,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1059,7 +1063,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1119,7 +1123,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1189,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1252,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1346,7 +1350,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1405,7 +1409,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1470,7 +1474,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1513,7 +1517,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1588,7 +1592,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1774,7 +1778,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1844,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1898,7 +1902,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1968,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2020,7 +2024,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2095,7 +2099,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2138,7 +2142,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2208,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2260,7 +2264,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns="" xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2356,25 +2360,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K137" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2681,7 +2685,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2691,7 +2695,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2699,34 +2703,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K137"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A74" activePane="bottomLeft"/>
+      <pane ySplit="3696" topLeftCell="A77" activePane="bottomLeft"/>
       <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="B83" sqref="B83"/>
+      <selection pane="bottomLeft" activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2747,7 +2751,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2767,7 +2771,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2789,7 +2793,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2797,7 +2801,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2810,7 +2814,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2827,7 +2831,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2886,7 +2890,7 @@
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>46</v>
       </c>
@@ -2908,7 +2912,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="40">
         <v>43101</v>
       </c>
@@ -2934,7 +2938,7 @@
         <v>43115</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="40">
         <v>43132</v>
       </c>
@@ -2960,7 +2964,7 @@
         <v>43143</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="40">
         <v>43160</v>
       </c>
@@ -2984,7 +2988,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="40">
         <v>43191</v>
       </c>
@@ -3010,7 +3014,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="40">
         <v>43221</v>
       </c>
@@ -3030,7 +3034,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="40">
         <v>43252</v>
       </c>
@@ -3050,7 +3054,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="40">
         <v>43282</v>
       </c>
@@ -3070,7 +3074,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="40">
         <v>43313</v>
       </c>
@@ -3090,7 +3094,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="40">
         <v>43344</v>
       </c>
@@ -3114,7 +3118,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="40"/>
       <c r="B20" s="20" t="s">
         <v>47</v>
@@ -3136,7 +3140,7 @@
         <v>43360</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
         <v>43374</v>
       </c>
@@ -3162,7 +3166,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="40">
         <v>43405</v>
       </c>
@@ -3182,7 +3186,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="40">
         <v>43435</v>
       </c>
@@ -3202,7 +3206,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>55</v>
       </c>
@@ -3220,7 +3224,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="40">
         <v>43466</v>
       </c>
@@ -3246,7 +3250,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="40">
         <v>43497</v>
       </c>
@@ -3266,7 +3270,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="40">
         <v>43525</v>
       </c>
@@ -3286,7 +3290,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="40">
         <v>43556</v>
       </c>
@@ -3306,7 +3310,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="40">
         <v>43586</v>
       </c>
@@ -3332,7 +3336,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="40"/>
       <c r="B30" s="20" t="s">
         <v>48</v>
@@ -3352,7 +3356,7 @@
         <v>43620</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="40">
         <v>43617</v>
       </c>
@@ -3372,7 +3376,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="40">
         <v>43647</v>
       </c>
@@ -3398,7 +3402,7 @@
         <v>43670</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
         <v>43678</v>
       </c>
@@ -3418,7 +3422,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
         <v>43709</v>
       </c>
@@ -3438,7 +3442,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="40">
         <v>43739</v>
       </c>
@@ -3458,7 +3462,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="40">
         <v>43770</v>
       </c>
@@ -3478,7 +3482,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="40">
         <v>43800</v>
       </c>
@@ -3504,7 +3508,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40"/>
       <c r="B38" s="20" t="s">
         <v>47</v>
@@ -3526,7 +3530,7 @@
         <v>43780</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="48" t="s">
         <v>60</v>
       </c>
@@ -3544,7 +3548,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
         <v>43831</v>
       </c>
@@ -3564,7 +3568,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
         <v>43862</v>
       </c>
@@ -3584,7 +3588,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
         <v>43891</v>
       </c>
@@ -3604,7 +3608,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="40">
         <v>43922</v>
       </c>
@@ -3624,7 +3628,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="40">
         <v>43952</v>
       </c>
@@ -3644,7 +3648,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="40">
         <v>43983</v>
       </c>
@@ -3664,7 +3668,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="40">
         <v>44013</v>
       </c>
@@ -3684,7 +3688,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="40">
         <v>44044</v>
       </c>
@@ -3704,7 +3708,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="40">
         <v>44075</v>
       </c>
@@ -3730,7 +3734,7 @@
         <v>44089</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>48</v>
@@ -3750,7 +3754,7 @@
         <v>44095</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="40">
         <v>44105</v>
       </c>
@@ -3770,7 +3774,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="40">
         <v>44136</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="J51" s="11"/>
       <c r="K51" s="20"/>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="40">
         <v>44166</v>
       </c>
@@ -3814,7 +3818,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="48" t="s">
         <v>61</v>
       </c>
@@ -3832,7 +3836,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="40">
         <v>44197</v>
       </c>
@@ -3852,7 +3856,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="40">
         <v>44228</v>
       </c>
@@ -3872,7 +3876,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="40">
         <v>44256</v>
       </c>
@@ -3892,7 +3896,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="40">
         <v>44287</v>
       </c>
@@ -3912,7 +3916,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="40">
         <v>44317</v>
       </c>
@@ -3932,7 +3936,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="40">
         <v>44348</v>
       </c>
@@ -3952,7 +3956,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="40">
         <v>44378</v>
       </c>
@@ -3972,7 +3976,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="40">
         <v>44409</v>
       </c>
@@ -3992,7 +3996,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="40">
         <v>44440</v>
       </c>
@@ -4012,7 +4016,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="40">
         <v>44470</v>
       </c>
@@ -4032,7 +4036,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="40">
         <v>44501</v>
       </c>
@@ -4052,7 +4056,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="40">
         <v>44531</v>
       </c>
@@ -4078,7 +4082,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="48" t="s">
         <v>63</v>
       </c>
@@ -4096,7 +4100,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="40">
         <v>44562</v>
       </c>
@@ -4116,7 +4120,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="40">
         <v>44593</v>
       </c>
@@ -4136,7 +4140,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="40">
         <v>44621</v>
       </c>
@@ -4158,7 +4162,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="40">
         <v>44652</v>
       </c>
@@ -4178,7 +4182,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="40">
         <v>44682</v>
       </c>
@@ -4204,7 +4208,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="40"/>
       <c r="B72" s="20" t="s">
         <v>66</v>
@@ -4226,7 +4230,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40">
         <v>44713</v>
       </c>
@@ -4252,7 +4256,7 @@
         <v>44718</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="40">
         <v>44743</v>
       </c>
@@ -4272,7 +4276,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="40">
         <v>44774</v>
       </c>
@@ -4292,7 +4296,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="40">
         <v>44805</v>
       </c>
@@ -4318,7 +4322,7 @@
         <v>44816</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="40"/>
       <c r="B77" s="20" t="s">
         <v>68</v>
@@ -4340,7 +4344,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="40">
         <v>44835</v>
       </c>
@@ -4366,7 +4370,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="40">
         <v>44866</v>
       </c>
@@ -4392,7 +4396,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="40">
         <v>44896</v>
       </c>
@@ -4418,7 +4422,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="40"/>
       <c r="B81" s="20" t="s">
         <v>47</v>
@@ -4440,7 +4444,7 @@
         <v>44908</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>47</v>
@@ -4462,7 +4466,7 @@
         <v>44910</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>72</v>
       </c>
@@ -4480,7 +4484,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="40">
         <v>44927</v>
       </c>
@@ -4506,7 +4510,7 @@
         <v>44936</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="40"/>
       <c r="B85" s="20" t="s">
         <v>47</v>
@@ -4528,7 +4532,7 @@
         <v>44957</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="40">
         <v>44958</v>
       </c>
@@ -4554,7 +4558,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="40"/>
       <c r="B87" s="20" t="s">
         <v>47</v>
@@ -4576,11 +4580,13 @@
         <v>44972</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="40">
         <v>44986</v>
       </c>
-      <c r="B88" s="20"/>
+      <c r="B88" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C88" s="13">
         <v>1.25</v>
       </c>
@@ -4594,9 +4600,11 @@
       <c r="H88" s="39"/>
       <c r="I88" s="9"/>
       <c r="J88" s="11"/>
-      <c r="K88" s="20"/>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K88" s="20" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="40">
         <v>45017</v>
       </c>
@@ -4614,7 +4622,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="40">
         <v>45047</v>
       </c>
@@ -4632,7 +4640,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="40">
         <v>45078</v>
       </c>
@@ -4650,7 +4658,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="40">
         <v>45108</v>
       </c>
@@ -4668,7 +4676,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="40">
         <v>45139</v>
       </c>
@@ -4686,7 +4694,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="40">
         <v>45170</v>
       </c>
@@ -4704,7 +4712,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="40">
         <v>45200</v>
       </c>
@@ -4722,7 +4730,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="40">
         <v>45231</v>
       </c>
@@ -4740,7 +4748,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="40">
         <v>45261</v>
       </c>
@@ -4758,7 +4766,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="40">
         <v>45292</v>
       </c>
@@ -4776,7 +4784,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="40">
         <v>45323</v>
       </c>
@@ -4794,7 +4802,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="40">
         <v>45352</v>
       </c>
@@ -4812,7 +4820,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="40">
         <v>45383</v>
       </c>
@@ -4830,7 +4838,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="40">
         <v>45413</v>
       </c>
@@ -4848,7 +4856,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="40">
         <v>45444</v>
       </c>
@@ -4866,7 +4874,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="40">
         <v>45474</v>
       </c>
@@ -4884,7 +4892,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="40">
         <v>45505</v>
       </c>
@@ -4902,7 +4910,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="40">
         <v>45536</v>
       </c>
@@ -4920,7 +4928,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="40">
         <v>45566</v>
       </c>
@@ -4938,7 +4946,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="40">
         <v>45597</v>
       </c>
@@ -4956,7 +4964,7 @@
       <c r="J108" s="11"/>
       <c r="K108" s="20"/>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="40">
         <v>45627</v>
       </c>
@@ -4974,7 +4982,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="40">
         <v>45658</v>
       </c>
@@ -4992,7 +5000,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="40">
         <v>45689</v>
       </c>
@@ -5010,7 +5018,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="40">
         <v>45717</v>
       </c>
@@ -5028,7 +5036,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="40">
         <v>45748</v>
       </c>
@@ -5046,7 +5054,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="40">
         <v>45778</v>
       </c>
@@ -5064,7 +5072,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="40">
         <v>45809</v>
       </c>
@@ -5082,7 +5090,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="40">
         <v>45839</v>
       </c>
@@ -5100,7 +5108,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="40">
         <v>45870</v>
       </c>
@@ -5118,7 +5126,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="40">
         <v>45901</v>
       </c>
@@ -5136,7 +5144,7 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="40">
         <v>45931</v>
       </c>
@@ -5154,7 +5162,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="40">
         <v>45962</v>
       </c>
@@ -5172,7 +5180,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="40">
         <v>45992</v>
       </c>
@@ -5190,7 +5198,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="40">
         <v>46023</v>
       </c>
@@ -5208,7 +5216,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="40">
         <v>46054</v>
       </c>
@@ -5226,7 +5234,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="40">
         <v>46082</v>
       </c>
@@ -5244,7 +5252,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="40">
         <v>46113</v>
       </c>
@@ -5262,7 +5270,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="40">
         <v>46143</v>
       </c>
@@ -5280,7 +5288,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="40">
         <v>46174</v>
       </c>
@@ -5298,7 +5306,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="40">
         <v>46204</v>
       </c>
@@ -5316,7 +5324,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="40">
         <v>46235</v>
       </c>
@@ -5334,7 +5342,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="40">
         <v>46266</v>
       </c>
@@ -5352,7 +5360,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="40">
         <v>46296</v>
       </c>
@@ -5370,7 +5378,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="40">
         <v>46327</v>
       </c>
@@ -5388,7 +5396,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="40">
         <v>46357</v>
       </c>
@@ -5406,7 +5414,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="40">
         <v>46388</v>
       </c>
@@ -5424,7 +5432,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="40">
         <v>46419</v>
       </c>
@@ -5442,7 +5450,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="40">
         <v>46447</v>
       </c>
@@ -5460,7 +5468,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="41"/>
       <c r="B137" s="15"/>
       <c r="C137" s="42"/>
@@ -5491,10 +5499,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5517,28 +5525,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -5551,7 +5559,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -5580,7 +5588,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11">
         <v>19.018000000000001</v>
       </c>
@@ -5604,17 +5612,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -5635,7 +5643,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5662,7 +5670,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5688,7 +5696,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5714,7 +5722,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5740,7 +5748,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5766,7 +5774,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5792,7 +5800,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5818,7 +5826,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5844,7 +5852,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5864,7 +5872,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5884,7 +5892,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5904,7 +5912,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5925,7 +5933,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5946,7 +5954,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5967,7 +5975,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5988,7 +5996,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -6009,7 +6017,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -6030,7 +6038,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -6072,7 +6080,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -6093,7 +6101,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -6114,7 +6122,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -6135,7 +6143,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -6156,7 +6164,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -6177,7 +6185,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -6198,7 +6206,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -6219,7 +6227,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -6240,7 +6248,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -6261,7 +6269,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -6282,7 +6290,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -6303,7 +6311,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -6324,7 +6332,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -6333,7 +6341,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -6342,7 +6350,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -6351,7 +6359,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -6360,7 +6368,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -6369,7 +6377,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -6378,7 +6386,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -6387,7 +6395,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -6396,7 +6404,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -6405,7 +6413,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -6414,7 +6422,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -6423,7 +6431,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -6432,7 +6440,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -6441,7 +6449,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -6450,7 +6458,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -6459,7 +6467,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -6468,7 +6476,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -6477,7 +6485,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -6486,7 +6494,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -6495,7 +6503,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -6504,7 +6512,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -6513,7 +6521,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -6522,7 +6530,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -6531,7 +6539,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -6540,7 +6548,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -6549,7 +6557,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -6558,7 +6566,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -6567,7 +6575,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -6576,7 +6584,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -6585,7 +6593,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
